--- a/Project - Mazzolin, Forni, Dian, Lavarello/DataEuroStock_Tecnology.xlsx
+++ b/Project - Mazzolin, Forni, Dian, Lavarello/DataEuroStock_Tecnology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forni\Desktop\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1083BE-2075-4AEB-8772-6E551F073A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD277F-2C55-40E6-BC03-CBB443CB072A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{52D34FB9-8F80-42E8-A7BC-569F6F5947D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{52D34FB9-8F80-42E8-A7BC-569F6F5947D9}"/>
   </bookViews>
   <sheets>
     <sheet name="EUROSTOXX600" sheetId="2" r:id="rId1"/>
@@ -344,37 +344,37 @@
       <tp t="s">
         <v>Name</v>
         <stp/>
-        <stp>5</stp>
-        <stp>191320437</stp>
+        <stp>4</stp>
+        <stp>277460953</stp>
         <tr r="A1" s="2"/>
       </tp>
       <tp t="s">
         <v>Name</v>
         <stp/>
-        <stp>4</stp>
-        <stp>191320437</stp>
+        <stp>5</stp>
+        <stp>277460953</stp>
+        <tr r="A1" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>Name</v>
+        <stp/>
+        <stp>2</stp>
+        <stp>277460953</stp>
+        <tr r="A1" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>Name</v>
+        <stp/>
+        <stp>3</stp>
+        <stp>277460953</stp>
         <tr r="A1" s="5"/>
       </tp>
       <tp t="s">
         <v>Name</v>
         <stp/>
         <stp>1</stp>
-        <stp>191320437</stp>
+        <stp>277460953</stp>
         <tr r="A1" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Name</v>
-        <stp/>
-        <stp>3</stp>
-        <stp>191320437</stp>
-        <tr r="A1" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Name</v>
-        <stp/>
-        <stp>2</stp>
-        <stp>191320437</stp>
-        <tr r="A1" s="3"/>
       </tp>
     </main>
   </volType>
@@ -24490,8 +24490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55AF48A-25A2-4815-B28C-927011504988}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Project - Mazzolin, Forni, Dian, Lavarello/DataEuroStock_Tecnology.xlsx
+++ b/Project - Mazzolin, Forni, Dian, Lavarello/DataEuroStock_Tecnology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forni\Desktop\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\Desktop\nuovoprogetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD277F-2C55-40E6-BC03-CBB443CB072A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA9EC01-717A-4257-B3C7-C3026D96C90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{52D34FB9-8F80-42E8-A7BC-569F6F5947D9}"/>
+    <workbookView xWindow="4035" yWindow="2475" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{52D34FB9-8F80-42E8-A7BC-569F6F5947D9}"/>
   </bookViews>
   <sheets>
     <sheet name="EUROSTOXX600" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>=DSGRID("DJSTOXX","RI","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</t>
         </r>
@@ -77,7 +77,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>=DSGRID("BDSU0316R"," ","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</t>
         </r>
@@ -101,7 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>=DSGRID("H:ASML,H:PROS,F:DSY,E:AMS,H:ASIN,F:CAP,W:EKBF,AUTO,H:TKWY,S:LOGN,N:NOD,SGE,D:SAPX,D:AIXAX,F:ALTE,S:AMS,H:BESI,D:BC8X,CCC,W:FORT,D:IFXX,W:LAGR,D:NEMX,I:REY,D:G24X,SCT,F:SOI,F:SOP,D:TMVX,S:TEMN,M:TIE1,I:STM","RI","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</t>
         </r>
@@ -125,7 +125,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>=DSGRID("F:CAP,M:TIE1,S:LOGN,W:EKBF,SGE,F:SOP,H:ASML,H:BESI,N:NOD,F:DSY,H:ASIN,D:SAPX,CCC,I:STM,D:AIXAX,F:ALTE,F:SOI,D:NEMX,D:IFXX,D:BC8X,I:REY,S:TEMN,W:LAGR,S:AMS,E:AMS,W:FORT","RI","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</t>
         </r>
@@ -149,7 +149,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>=DSGRID("TRBD3MT"," ","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</t>
         </r>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="124">
   <si>
     <t>BD INTEREST RATES - EURIBOR RATE - 3 MONTH NADJ</t>
   </si>
@@ -266,12 +266,279 @@
   <si>
     <t>RF GERMANY GVT BMK BID YLD 3M - RED. YIELD</t>
   </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.234</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>0.313</t>
+  </si>
+  <si>
+    <t>0.339</t>
+  </si>
+  <si>
+    <t>0.311</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
+    <t>0.209</t>
+  </si>
+  <si>
+    <t>0.163</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>0.082</t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>-0.005</t>
+  </si>
+  <si>
+    <t>-0.012</t>
+  </si>
+  <si>
+    <t>-0.014</t>
+  </si>
+  <si>
+    <t>-0.023</t>
+  </si>
+  <si>
+    <t>-0.033</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.068</t>
+  </si>
+  <si>
+    <t>-0.114</t>
+  </si>
+  <si>
+    <t>-0.131</t>
+  </si>
+  <si>
+    <t>-0.162</t>
+  </si>
+  <si>
+    <t>-0.205</t>
+  </si>
+  <si>
+    <t>-0.244</t>
+  </si>
+  <si>
+    <t>-0.251</t>
+  </si>
+  <si>
+    <t>-0.261</t>
+  </si>
+  <si>
+    <t>-0.286</t>
+  </si>
+  <si>
+    <t>-0.297</t>
+  </si>
+  <si>
+    <t>-0.299</t>
+  </si>
+  <si>
+    <t>-0.301</t>
+  </si>
+  <si>
+    <t>-0.313</t>
+  </si>
+  <si>
+    <t>-0.314</t>
+  </si>
+  <si>
+    <t>-0.319</t>
+  </si>
+  <si>
+    <t>-0.327</t>
+  </si>
+  <si>
+    <t>-0.33</t>
+  </si>
+  <si>
+    <t>-0.329</t>
+  </si>
+  <si>
+    <t>-0.331</t>
+  </si>
+  <si>
+    <t>-0.328</t>
+  </si>
+  <si>
+    <t>-0.321</t>
+  </si>
+  <si>
+    <t>-0.318</t>
+  </si>
+  <si>
+    <t>-0.316</t>
+  </si>
+  <si>
+    <t>-0.309</t>
+  </si>
+  <si>
+    <t>-0.308</t>
+  </si>
+  <si>
+    <t>-0.311</t>
+  </si>
+  <si>
+    <t>-0.31</t>
+  </si>
+  <si>
+    <t>-0.322</t>
+  </si>
+  <si>
+    <t>-0.345</t>
+  </si>
+  <si>
+    <t>-0.375</t>
+  </si>
+  <si>
+    <t>-0.433</t>
+  </si>
+  <si>
+    <t>-0.418</t>
+  </si>
+  <si>
+    <t>-0.394</t>
+  </si>
+  <si>
+    <t>-0.401</t>
+  </si>
+  <si>
+    <t>-0.383</t>
+  </si>
+  <si>
+    <t>-0.393</t>
+  </si>
+  <si>
+    <t>-0.424</t>
+  </si>
+  <si>
+    <t>-0.363</t>
+  </si>
+  <si>
+    <t>-0.273</t>
+  </si>
+  <si>
+    <t>-0.307</t>
+  </si>
+  <si>
+    <t>-0.422</t>
+  </si>
+  <si>
+    <t>-0.463</t>
+  </si>
+  <si>
+    <t>-0.477</t>
+  </si>
+  <si>
+    <t>-0.498</t>
+  </si>
+  <si>
+    <t>-0.523</t>
+  </si>
+  <si>
+    <t>-0.526</t>
+  </si>
+  <si>
+    <t>-0.545</t>
+  </si>
+  <si>
+    <t>-0.548</t>
+  </si>
+  <si>
+    <t>-0.53</t>
+  </si>
+  <si>
+    <t>-0.538</t>
+  </si>
+  <si>
+    <t>-0.535</t>
+  </si>
+  <si>
+    <t>-0.544</t>
+  </si>
+  <si>
+    <t>-0.542</t>
+  </si>
+  <si>
+    <t>-0.553</t>
+  </si>
+  <si>
+    <t>-0.573</t>
+  </si>
+  <si>
+    <t>-0.572</t>
+  </si>
+  <si>
+    <t>-0.552</t>
+  </si>
+  <si>
+    <t>-0.533</t>
+  </si>
+  <si>
+    <t>-0.458</t>
+  </si>
+  <si>
+    <t>-0.429</t>
+  </si>
+  <si>
+    <t>-0.338</t>
+  </si>
+  <si>
+    <t>-0.195</t>
+  </si>
+  <si>
+    <t>0.232</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,7 +551,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -293,6 +560,29 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -312,17 +602,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale 2" xfId="1" xr:uid="{513CE309-63A6-4D57-B1F4-CE680B9D6467}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -335,50 +638,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="refinitivshim.rtdserver.dsgrid">
-      <tp t="s">
-        <v>Name</v>
-        <stp/>
-        <stp>4</stp>
-        <stp>277460953</stp>
-        <tr r="A1" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Name</v>
-        <stp/>
-        <stp>5</stp>
-        <stp>277460953</stp>
-        <tr r="A1" s="3"/>
-      </tp>
-      <tp t="s">
-        <v>Name</v>
-        <stp/>
-        <stp>2</stp>
-        <stp>277460953</stp>
-        <tr r="A1" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Name</v>
-        <stp/>
-        <stp>3</stp>
-        <stp>277460953</stp>
-        <tr r="A1" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>Name</v>
-        <stp/>
-        <stp>1</stp>
-        <stp>277460953</stp>
-        <tr r="A1" s="7"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -682,22 +941,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
-        <f>_xll.DSGRID("DJSTOXX","RI","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</f>
-        <v>Name</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="e">
+        <f ca="1">_xll.DSGRID("DJSTOXX","RI","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</f>
+        <v>#NAME?</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>41547</v>
       </c>
@@ -705,7 +964,7 @@
         <v>131.08000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>41578</v>
       </c>
@@ -713,7 +972,7 @@
         <v>136.24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>41607</v>
       </c>
@@ -721,7 +980,7 @@
         <v>137.68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>41639</v>
       </c>
@@ -729,7 +988,7 @@
         <v>139.12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>41670</v>
       </c>
@@ -737,7 +996,7 @@
         <v>136.84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>41698</v>
       </c>
@@ -745,7 +1004,7 @@
         <v>143.72999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>41729</v>
       </c>
@@ -753,7 +1012,7 @@
         <v>142.69</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>41759</v>
       </c>
@@ -761,7 +1020,7 @@
         <v>145.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>41789</v>
       </c>
@@ -769,7 +1028,7 @@
         <v>149.15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>41820</v>
       </c>
@@ -777,7 +1036,7 @@
         <v>148.43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>41851</v>
       </c>
@@ -785,7 +1044,7 @@
         <v>146.02000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>41880</v>
       </c>
@@ -793,7 +1052,7 @@
         <v>149.01</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>41912</v>
       </c>
@@ -801,7 +1060,7 @@
         <v>149.63999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>41943</v>
       </c>
@@ -809,7 +1068,7 @@
         <v>147.05000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>41971</v>
       </c>
@@ -817,7 +1076,7 @@
         <v>151.88</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42004</v>
       </c>
@@ -825,7 +1084,7 @@
         <v>149.96</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42034</v>
       </c>
@@ -833,7 +1092,7 @@
         <v>160.87</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42062</v>
       </c>
@@ -841,7 +1100,7 @@
         <v>172.12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42094</v>
       </c>
@@ -849,7 +1108,7 @@
         <v>175.17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42124</v>
       </c>
@@ -857,7 +1116,7 @@
         <v>175.55</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42153</v>
       </c>
@@ -865,7 +1124,7 @@
         <v>178.77</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42185</v>
       </c>
@@ -873,7 +1132,7 @@
         <v>170.8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42216</v>
       </c>
@@ -881,7 +1140,7 @@
         <v>177.67</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42247</v>
       </c>
@@ -889,7 +1148,7 @@
         <v>163.07</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42277</v>
       </c>
@@ -897,7 +1156,7 @@
         <v>156.47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42307</v>
       </c>
@@ -905,7 +1164,7 @@
         <v>169.13</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42338</v>
       </c>
@@ -913,7 +1172,7 @@
         <v>173.92</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42369</v>
       </c>
@@ -921,7 +1180,7 @@
         <v>165.2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42398</v>
       </c>
@@ -929,7 +1188,7 @@
         <v>154.69999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42429</v>
       </c>
@@ -937,7 +1196,7 @@
         <v>151.36000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42460</v>
       </c>
@@ -945,7 +1204,7 @@
         <v>153.59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42489</v>
       </c>
@@ -953,7 +1212,7 @@
         <v>156.52000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42521</v>
       </c>
@@ -961,7 +1220,7 @@
         <v>160.74</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42551</v>
       </c>
@@ -969,7 +1228,7 @@
         <v>153.04</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42580</v>
       </c>
@@ -977,7 +1236,7 @@
         <v>158.77000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42613</v>
       </c>
@@ -985,7 +1244,7 @@
         <v>159.97</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42643</v>
       </c>
@@ -993,7 +1252,7 @@
         <v>159.82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42674</v>
       </c>
@@ -1001,7 +1260,7 @@
         <v>158.19</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42704</v>
       </c>
@@ -1009,7 +1268,7 @@
         <v>159.9</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42734</v>
       </c>
@@ -1017,7 +1276,7 @@
         <v>169.12</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42766</v>
       </c>
@@ -1025,7 +1284,7 @@
         <v>168.61</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42794</v>
       </c>
@@ -1033,7 +1292,7 @@
         <v>173.79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42825</v>
       </c>
@@ -1041,7 +1300,7 @@
         <v>179.78</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42853</v>
       </c>
@@ -1049,7 +1308,7 @@
         <v>183.54</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42886</v>
       </c>
@@ -1057,7 +1316,7 @@
         <v>186.57</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42916</v>
       </c>
@@ -1065,7 +1324,7 @@
         <v>181.92</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42947</v>
       </c>
@@ -1073,7 +1332,7 @@
         <v>181.3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42978</v>
       </c>
@@ -1081,7 +1340,7 @@
         <v>179.89</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43007</v>
       </c>
@@ -1089,7 +1348,7 @@
         <v>186.93</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43039</v>
       </c>
@@ -1097,7 +1356,7 @@
         <v>190.53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43069</v>
       </c>
@@ -1105,7 +1364,7 @@
         <v>186.71</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43098</v>
       </c>
@@ -1113,7 +1372,7 @@
         <v>188.09</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43131</v>
       </c>
@@ -1121,7 +1380,7 @@
         <v>191.23</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43159</v>
       </c>
@@ -1129,7 +1388,7 @@
         <v>183.98</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43189</v>
       </c>
@@ -1137,7 +1396,7 @@
         <v>180.51</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43220</v>
       </c>
@@ -1145,7 +1404,7 @@
         <v>188.91</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43251</v>
       </c>
@@ -1153,7 +1412,7 @@
         <v>189.53</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43280</v>
       </c>
@@ -1161,7 +1420,7 @@
         <v>188.41</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43312</v>
       </c>
@@ -1169,7 +1428,7 @@
         <v>194.35</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43343</v>
       </c>
@@ -1177,7 +1436,7 @@
         <v>190.22</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43371</v>
       </c>
@@ -1185,7 +1444,7 @@
         <v>190.86</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43404</v>
       </c>
@@ -1193,7 +1452,7 @@
         <v>180.33</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43434</v>
       </c>
@@ -1201,7 +1460,7 @@
         <v>178.58</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43465</v>
       </c>
@@ -1209,7 +1468,7 @@
         <v>168.87</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43496</v>
       </c>
@@ -1217,7 +1476,7 @@
         <v>179.59</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43524</v>
       </c>
@@ -1225,7 +1484,7 @@
         <v>187.07</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43553</v>
       </c>
@@ -1233,7 +1492,7 @@
         <v>191.13</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43585</v>
       </c>
@@ -1241,7 +1500,7 @@
         <v>198.6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43616</v>
       </c>
@@ -1249,7 +1508,7 @@
         <v>189.21</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43644</v>
       </c>
@@ -1257,7 +1516,7 @@
         <v>197.73</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43677</v>
       </c>
@@ -1265,7 +1524,7 @@
         <v>198.39</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43707</v>
       </c>
@@ -1273,7 +1532,7 @@
         <v>195.74</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43738</v>
       </c>
@@ -1281,7 +1540,7 @@
         <v>203.01</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43769</v>
       </c>
@@ -1289,7 +1548,7 @@
         <v>205.15</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43798</v>
       </c>
@@ -1297,7 +1556,7 @@
         <v>210.99</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43830</v>
       </c>
@@ -1305,7 +1564,7 @@
         <v>215.52</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43861</v>
       </c>
@@ -1313,7 +1572,7 @@
         <v>213.02</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43889</v>
       </c>
@@ -1321,7 +1580,7 @@
         <v>195.29</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43921</v>
       </c>
@@ -1329,7 +1588,7 @@
         <v>167.12</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43951</v>
       </c>
@@ -1337,7 +1596,7 @@
         <v>178.2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43980</v>
       </c>
@@ -1345,7 +1604,7 @@
         <v>184.43</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>44012</v>
       </c>
@@ -1353,7 +1612,7 @@
         <v>190.16</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>44043</v>
       </c>
@@ -1361,7 +1620,7 @@
         <v>188.41</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44074</v>
       </c>
@@ -1369,7 +1628,7 @@
         <v>194.2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>44104</v>
       </c>
@@ -1377,7 +1636,7 @@
         <v>191.5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>44134</v>
       </c>
@@ -1385,7 +1644,7 @@
         <v>181.75</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>44165</v>
       </c>
@@ -1393,7 +1652,7 @@
         <v>206.93</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>44196</v>
       </c>
@@ -1401,7 +1660,7 @@
         <v>212.31</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>44225</v>
       </c>
@@ -1409,7 +1668,7 @@
         <v>210.75</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>44253</v>
       </c>
@@ -1417,7 +1676,7 @@
         <v>215.92</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>44286</v>
       </c>
@@ -1425,7 +1684,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>44316</v>
       </c>
@@ -1433,7 +1692,7 @@
         <v>235.36</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>44347</v>
       </c>
@@ -1441,7 +1700,7 @@
         <v>241.74</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>44377</v>
       </c>
@@ -1449,7 +1708,7 @@
         <v>245.43</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>44407</v>
       </c>
@@ -1457,7 +1716,7 @@
         <v>250.52</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>44439</v>
       </c>
@@ -1465,7 +1724,7 @@
         <v>255.99</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>44469</v>
       </c>
@@ -1473,7 +1732,7 @@
         <v>247.62</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>44498</v>
       </c>
@@ -1481,7 +1740,7 @@
         <v>259.26</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>44530</v>
       </c>
@@ -1489,7 +1748,7 @@
         <v>252.77</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>44561</v>
       </c>
@@ -1497,7 +1756,7 @@
         <v>266.49</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>44592</v>
       </c>
@@ -1505,7 +1764,7 @@
         <v>256.32</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>44620</v>
       </c>
@@ -1513,7 +1772,7 @@
         <v>248.02</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>44651</v>
       </c>
@@ -1521,7 +1780,7 @@
         <v>250.78</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>44680</v>
       </c>
@@ -1529,7 +1788,7 @@
         <v>249.3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>44712</v>
       </c>
@@ -1537,7 +1796,7 @@
         <v>247.48</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>44742</v>
       </c>
@@ -1545,7 +1804,7 @@
         <v>227.69</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>44771</v>
       </c>
@@ -1553,7 +1812,7 @@
         <v>245.35</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>44804</v>
       </c>
@@ -1561,7 +1820,7 @@
         <v>232.99</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>44834</v>
       </c>
@@ -1569,7 +1828,7 @@
         <v>217.94</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>44865</v>
       </c>
@@ -1577,7 +1836,7 @@
         <v>231.8</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>44895</v>
       </c>
@@ -1585,7 +1844,7 @@
         <v>247.82</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>44925</v>
       </c>
@@ -1593,7 +1852,7 @@
         <v>239.48</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>44957</v>
       </c>
@@ -1601,7 +1860,7 @@
         <v>255.65</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>44985</v>
       </c>
@@ -1609,7 +1868,7 @@
         <v>260.48</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>45016</v>
       </c>
@@ -1617,7 +1876,7 @@
         <v>259.95999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>45044</v>
       </c>
@@ -1625,7 +1884,7 @@
         <v>266.70999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>45077</v>
       </c>
@@ -1633,7 +1892,7 @@
         <v>260.49</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>45107</v>
       </c>
@@ -1641,7 +1900,7 @@
         <v>266.86</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>45138</v>
       </c>
@@ -1649,7 +1908,7 @@
         <v>272.64</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>45169</v>
       </c>
@@ -1657,7 +1916,7 @@
         <v>265.75</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>45198</v>
       </c>
@@ -1678,994 +1937,992 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4B859D-1E96-4237-B3FF-FD50BDDBBE14}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
-        <f>_xll.DSGRID("BDSU0316R"," ","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</f>
-        <v>Name</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>41532</v>
-      </c>
-      <c r="B2">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>41562</v>
-      </c>
-      <c r="B3">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>41593</v>
-      </c>
-      <c r="B4">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>41623</v>
-      </c>
-      <c r="B5">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>41654</v>
-      </c>
-      <c r="B6">
-        <v>0.28999999999999998</v>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="4">
+        <v>41547</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="4">
+        <v>41578</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75">
+      <c r="A4" s="4">
+        <v>41607</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="4">
+        <v>41639</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
+      <c r="A6" s="4">
+        <v>41670</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>41685</v>
-      </c>
-      <c r="B7">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>41713</v>
-      </c>
-      <c r="B8">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>41744</v>
-      </c>
-      <c r="B9">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>41774</v>
-      </c>
-      <c r="B10">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>41805</v>
-      </c>
-      <c r="B11">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>41835</v>
-      </c>
-      <c r="B12">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>41866</v>
-      </c>
-      <c r="B13">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>41897</v>
-      </c>
-      <c r="B14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>41927</v>
-      </c>
-      <c r="B15">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>41958</v>
-      </c>
-      <c r="B16">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>41988</v>
-      </c>
-      <c r="B17">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>42019</v>
-      </c>
-      <c r="B18">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>42050</v>
-      </c>
-      <c r="B19">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>42078</v>
-      </c>
-      <c r="B20">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>42109</v>
-      </c>
-      <c r="B21">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>42139</v>
-      </c>
-      <c r="B22">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>42170</v>
-      </c>
-      <c r="B23">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>42200</v>
-      </c>
-      <c r="B24">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>42231</v>
-      </c>
-      <c r="B25">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>42262</v>
-      </c>
-      <c r="B26">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>42292</v>
-      </c>
-      <c r="B27">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>42323</v>
-      </c>
-      <c r="B28">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>42353</v>
-      </c>
-      <c r="B29">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>42384</v>
-      </c>
-      <c r="B30">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>42415</v>
-      </c>
-      <c r="B31">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>42444</v>
-      </c>
-      <c r="B32">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>42475</v>
-      </c>
-      <c r="B33">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>42505</v>
-      </c>
-      <c r="B34">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>42536</v>
-      </c>
-      <c r="B35">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>42566</v>
-      </c>
-      <c r="B36">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>42597</v>
-      </c>
-      <c r="B37">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>42628</v>
-      </c>
-      <c r="B38">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>42658</v>
-      </c>
-      <c r="B39">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>42689</v>
-      </c>
-      <c r="B40">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>42719</v>
-      </c>
-      <c r="B41">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>42750</v>
-      </c>
-      <c r="B42">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>42781</v>
-      </c>
-      <c r="B43">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>42809</v>
-      </c>
-      <c r="B44">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>42840</v>
-      </c>
-      <c r="B45">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>42870</v>
-      </c>
-      <c r="B46">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>42901</v>
-      </c>
-      <c r="B47">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>42931</v>
-      </c>
-      <c r="B48">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>42962</v>
-      </c>
-      <c r="B49">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>42993</v>
-      </c>
-      <c r="B50">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>43023</v>
-      </c>
-      <c r="B51">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>43054</v>
-      </c>
-      <c r="B52">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>43084</v>
-      </c>
-      <c r="B53">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>43115</v>
-      </c>
-      <c r="B54">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B55">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>43174</v>
-      </c>
-      <c r="B56">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>43205</v>
-      </c>
-      <c r="B57">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>43235</v>
-      </c>
-      <c r="B58">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>43266</v>
-      </c>
-      <c r="B59">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>43296</v>
-      </c>
-      <c r="B60">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>43327</v>
-      </c>
-      <c r="B61">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>43358</v>
-      </c>
-      <c r="B62">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>43388</v>
-      </c>
-      <c r="B63">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>43419</v>
-      </c>
-      <c r="B64">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>43449</v>
-      </c>
-      <c r="B65">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>43480</v>
-      </c>
-      <c r="B66">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>43511</v>
-      </c>
-      <c r="B67">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>43539</v>
-      </c>
-      <c r="B68">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>43570</v>
-      </c>
-      <c r="B69">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>43600</v>
-      </c>
-      <c r="B70">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>43631</v>
-      </c>
-      <c r="B71">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>43661</v>
-      </c>
-      <c r="B72">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>43692</v>
-      </c>
-      <c r="B73">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
-        <v>43723</v>
-      </c>
-      <c r="B74">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>43753</v>
-      </c>
-      <c r="B75">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
-        <v>43784</v>
-      </c>
-      <c r="B76">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>43814</v>
-      </c>
-      <c r="B77">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>43845</v>
-      </c>
-      <c r="B78">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>43876</v>
-      </c>
-      <c r="B79">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>43905</v>
-      </c>
-      <c r="B80">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>43936</v>
-      </c>
-      <c r="B81">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>43966</v>
-      </c>
-      <c r="B82">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>43997</v>
-      </c>
-      <c r="B83">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B84">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B85">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <v>44089</v>
-      </c>
-      <c r="B86">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>44119</v>
-      </c>
-      <c r="B87">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <v>44150</v>
-      </c>
-      <c r="B88">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>44180</v>
-      </c>
-      <c r="B89">
-        <v>-0.54</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
-        <v>44211</v>
-      </c>
-      <c r="B90">
-        <v>-0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B91">
-        <v>-0.54</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
-        <v>44270</v>
-      </c>
-      <c r="B92">
-        <v>-0.54</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>44301</v>
-      </c>
-      <c r="B93">
-        <v>-0.54</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>44331</v>
-      </c>
-      <c r="B94">
-        <v>-0.54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>44362</v>
-      </c>
-      <c r="B95">
-        <v>-0.54</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>44392</v>
-      </c>
-      <c r="B96">
-        <v>-0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B97">
-        <v>-0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
-        <v>44454</v>
-      </c>
-      <c r="B98">
-        <v>-0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>44484</v>
-      </c>
-      <c r="B99">
-        <v>-0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
-        <v>44515</v>
-      </c>
-      <c r="B100">
-        <v>-0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
-        <v>44545</v>
-      </c>
-      <c r="B101">
-        <v>-0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
-        <v>44576</v>
-      </c>
-      <c r="B102">
-        <v>-0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
-        <v>44607</v>
-      </c>
-      <c r="B103">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
-        <v>44635</v>
-      </c>
-      <c r="B104">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
-        <v>44666</v>
-      </c>
-      <c r="B105">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
-        <v>44696</v>
-      </c>
-      <c r="B106">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
-        <v>44727</v>
-      </c>
-      <c r="B107">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
-        <v>44757</v>
-      </c>
-      <c r="B108">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
-        <v>44788</v>
-      </c>
-      <c r="B109">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
-        <v>44819</v>
-      </c>
-      <c r="B110">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
-        <v>44849</v>
-      </c>
-      <c r="B111">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
-        <v>44880</v>
-      </c>
-      <c r="B112">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
-        <v>44910</v>
-      </c>
-      <c r="B113">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
-        <v>44941</v>
-      </c>
-      <c r="B114">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
-        <v>44972</v>
-      </c>
-      <c r="B115">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
-        <v>45000</v>
-      </c>
-      <c r="B116">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
-        <v>45031</v>
-      </c>
-      <c r="B117">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
-        <v>45061</v>
-      </c>
-      <c r="B118">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
-        <v>45092</v>
-      </c>
-      <c r="B119">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
-        <v>45122</v>
-      </c>
-      <c r="B120">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
-        <v>45153</v>
-      </c>
-      <c r="B121">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
-        <v>45184</v>
-      </c>
-      <c r="B122">
-        <v>3.88</v>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="4">
+        <v>41698</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="4">
+        <v>41729</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="4">
+        <v>41759</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="4">
+        <v>41789</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="4">
+        <v>41820</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="4">
+        <v>41851</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="4">
+        <v>41880</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="4">
+        <v>41912</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="4">
+        <v>41943</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="4">
+        <v>41971</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="4">
+        <v>42004</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="4">
+        <v>42034</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
+      <c r="A19" s="4">
+        <v>42062</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20" s="4">
+        <v>42094</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75">
+      <c r="A21" s="4">
+        <v>42124</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75">
+      <c r="A22" s="4">
+        <v>42153</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75">
+      <c r="A23" s="4">
+        <v>42185</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75">
+      <c r="A24" s="4">
+        <v>42216</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75">
+      <c r="A25" s="4">
+        <v>42247</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75">
+      <c r="A26" s="4">
+        <v>42277</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75">
+      <c r="A27" s="4">
+        <v>42307</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75">
+      <c r="A28" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75">
+      <c r="A29" s="4">
+        <v>42369</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75">
+      <c r="A30" s="4">
+        <v>42398</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75">
+      <c r="A31" s="4">
+        <v>42429</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75">
+      <c r="A32" s="4">
+        <v>42460</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75">
+      <c r="A33" s="4">
+        <v>42489</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75">
+      <c r="A34" s="4">
+        <v>42521</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75">
+      <c r="A35" s="4">
+        <v>42551</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75">
+      <c r="A36" s="4">
+        <v>42580</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75">
+      <c r="A37" s="4">
+        <v>42613</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75">
+      <c r="A38" s="4">
+        <v>42643</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75">
+      <c r="A39" s="4">
+        <v>42674</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75">
+      <c r="A40" s="4">
+        <v>42704</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75">
+      <c r="A41" s="4">
+        <v>42734</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75">
+      <c r="A42" s="4">
+        <v>42766</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75">
+      <c r="A43" s="4">
+        <v>42794</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75">
+      <c r="A44" s="4">
+        <v>42825</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75">
+      <c r="A45" s="4">
+        <v>42853</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75">
+      <c r="A46" s="4">
+        <v>42886</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75">
+      <c r="A47" s="4">
+        <v>42916</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75">
+      <c r="A48" s="4">
+        <v>42947</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75">
+      <c r="A49" s="4">
+        <v>42978</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75">
+      <c r="A50" s="4">
+        <v>43007</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75">
+      <c r="A51" s="4">
+        <v>43039</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75">
+      <c r="A52" s="4">
+        <v>43069</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75">
+      <c r="A53" s="4">
+        <v>43098</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75">
+      <c r="A54" s="4">
+        <v>43131</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75">
+      <c r="A55" s="4">
+        <v>43159</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75">
+      <c r="A56" s="4">
+        <v>43189</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75">
+      <c r="A57" s="4">
+        <v>43220</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75">
+      <c r="A58" s="4">
+        <v>43251</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75">
+      <c r="A59" s="4">
+        <v>43280</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75">
+      <c r="A60" s="4">
+        <v>43312</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75">
+      <c r="A61" s="4">
+        <v>43343</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75">
+      <c r="A62" s="4">
+        <v>43371</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75">
+      <c r="A63" s="4">
+        <v>43404</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75">
+      <c r="A64" s="4">
+        <v>43434</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75">
+      <c r="A65" s="4">
+        <v>43465</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75">
+      <c r="A66" s="4">
+        <v>43496</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75">
+      <c r="A67" s="4">
+        <v>43524</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75">
+      <c r="A68" s="4">
+        <v>43553</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75">
+      <c r="A69" s="4">
+        <v>43585</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75">
+      <c r="A70" s="4">
+        <v>43616</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75">
+      <c r="A71" s="4">
+        <v>43644</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75">
+      <c r="A72" s="4">
+        <v>43677</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75">
+      <c r="A73" s="4">
+        <v>43707</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75">
+      <c r="A74" s="4">
+        <v>43738</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75">
+      <c r="A75" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75">
+      <c r="A76" s="4">
+        <v>43798</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75">
+      <c r="A77" s="4">
+        <v>43830</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75">
+      <c r="A78" s="4">
+        <v>43861</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75">
+      <c r="A79" s="4">
+        <v>43889</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75">
+      <c r="A80" s="4">
+        <v>43921</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75">
+      <c r="A81" s="4">
+        <v>43951</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75">
+      <c r="A82" s="4">
+        <v>43980</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75">
+      <c r="A83" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75">
+      <c r="A84" s="4">
+        <v>44043</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75">
+      <c r="A85" s="4">
+        <v>44074</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75">
+      <c r="A86" s="4">
+        <v>44104</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75">
+      <c r="A87" s="4">
+        <v>44134</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75">
+      <c r="A88" s="4">
+        <v>44165</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75">
+      <c r="A89" s="4">
+        <v>44196</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75">
+      <c r="A90" s="4">
+        <v>44225</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75">
+      <c r="A91" s="4">
+        <v>44253</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75">
+      <c r="A92" s="4">
+        <v>44286</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75">
+      <c r="A93" s="4">
+        <v>44316</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75">
+      <c r="A94" s="4">
+        <v>44347</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75">
+      <c r="A95" s="4">
+        <v>44377</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75">
+      <c r="A96" s="4">
+        <v>44407</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75">
+      <c r="A97" s="4">
+        <v>44439</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75">
+      <c r="A98" s="4">
+        <v>44469</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75">
+      <c r="A99" s="4">
+        <v>44498</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75">
+      <c r="A100" s="4">
+        <v>44530</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75">
+      <c r="A101" s="4">
+        <v>44561</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75">
+      <c r="A102" s="4">
+        <v>44592</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75">
+      <c r="A103" s="4">
+        <v>44620</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75">
+      <c r="A104" s="4">
+        <v>44651</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75">
+      <c r="A105" s="4">
+        <v>44680</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75">
+      <c r="A106" s="4">
+        <v>44712</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75">
+      <c r="A107" s="4">
+        <v>44742</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75">
+      <c r="A108" s="4">
+        <v>44771</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75">
+      <c r="A109" s="4">
+        <v>44804</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75">
+      <c r="A110" s="4">
+        <v>44834</v>
+      </c>
+      <c r="B110" s="8">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75">
+      <c r="A111" s="4">
+        <v>44865</v>
+      </c>
+      <c r="B111" s="8">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75">
+      <c r="A112" s="4">
+        <v>44895</v>
+      </c>
+      <c r="B112" s="8">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75">
+      <c r="A113" s="4">
+        <v>44925</v>
+      </c>
+      <c r="B113" s="8">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75">
+      <c r="A114" s="4">
+        <v>44957</v>
+      </c>
+      <c r="B114" s="8">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75">
+      <c r="A115" s="4">
+        <v>44985</v>
+      </c>
+      <c r="B115" s="8">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75">
+      <c r="A116" s="4">
+        <v>45016</v>
+      </c>
+      <c r="B116" s="8">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75">
+      <c r="A117" s="4">
+        <v>45044</v>
+      </c>
+      <c r="B117" s="8">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75">
+      <c r="A118" s="4">
+        <v>45077</v>
+      </c>
+      <c r="B118" s="8">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75">
+      <c r="A119" s="4">
+        <v>45107</v>
+      </c>
+      <c r="B119" s="8">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75">
+      <c r="A120" s="4">
+        <v>45138</v>
+      </c>
+      <c r="B120" s="8">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75">
+      <c r="A121" s="4">
+        <v>45169</v>
+      </c>
+      <c r="B121" s="8">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75">
+      <c r="A122" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B122" s="8">
+        <v>3952</v>
       </c>
     </row>
   </sheetData>
@@ -2683,15 +2940,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
-        <f>_xll.DSGRID("H:ASML,H:PROS,F:DSY,E:AMS,H:ASIN,F:CAP,W:EKBF,AUTO,H:TKWY,S:LOGN,N:NOD,SGE,D:SAPX,D:AIXAX,F:ALTE,S:AMS,H:BESI,D:BC8X,CCC,W:FORT,D:IFXX,W:LAGR,D:NEMX,I:REY,D:G24X,SCT,F:SOI,F:SOP,D:TMVX,S:TEMN,M:TIE1,I:STM","RI","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</f>
-        <v>Name</v>
+    <row r="1" spans="1:33">
+      <c r="A1" t="e">
+        <f ca="1">_xll.DSGRID("H:ASML,H:PROS,F:DSY,E:AMS,H:ASIN,F:CAP,W:EKBF,AUTO,H:TKWY,S:LOGN,N:NOD,SGE,D:SAPX,D:AIXAX,F:ALTE,S:AMS,H:BESI,D:BC8X,CCC,W:FORT,D:IFXX,W:LAGR,D:NEMX,I:REY,D:G24X,SCT,F:SOI,F:SOP,D:TMVX,S:TEMN,M:TIE1,I:STM","RI","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</f>
+        <v>#NAME?</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2790,7 +3047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33">
       <c r="A2" s="2">
         <v>41547</v>
       </c>
@@ -2873,7 +3130,7 @@
         <v>81.010000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33">
       <c r="A3" s="2">
         <v>41578</v>
       </c>
@@ -2956,7 +3213,7 @@
         <v>67.87</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33">
       <c r="A4" s="2">
         <v>41607</v>
       </c>
@@ -3039,7 +3296,7 @@
         <v>69.12</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33">
       <c r="A5" s="2">
         <v>41639</v>
       </c>
@@ -3122,7 +3379,7 @@
         <v>69.48</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33">
       <c r="A6" s="2">
         <v>41670</v>
       </c>
@@ -3205,7 +3462,7 @@
         <v>73.510000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33">
       <c r="A7" s="2">
         <v>41698</v>
       </c>
@@ -3288,7 +3545,7 @@
         <v>78.8</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33">
       <c r="A8" s="2">
         <v>41729</v>
       </c>
@@ -3371,7 +3628,7 @@
         <v>81.59</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33">
       <c r="A9" s="2">
         <v>41759</v>
       </c>
@@ -3454,7 +3711,7 @@
         <v>83.66</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33">
       <c r="A10" s="2">
         <v>41789</v>
       </c>
@@ -3537,7 +3794,7 @@
         <v>89.24</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33">
       <c r="A11" s="2">
         <v>41820</v>
       </c>
@@ -3620,7 +3877,7 @@
         <v>80.25</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33">
       <c r="A12" s="2">
         <v>41851</v>
       </c>
@@ -3703,7 +3960,7 @@
         <v>76.209999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33">
       <c r="A13" s="2">
         <v>41880</v>
       </c>
@@ -3786,7 +4043,7 @@
         <v>77.930000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33">
       <c r="A14" s="2">
         <v>41912</v>
       </c>
@@ -3869,7 +4126,7 @@
         <v>76.010000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33">
       <c r="A15" s="2">
         <v>41943</v>
       </c>
@@ -3952,7 +4209,7 @@
         <v>65.98</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33">
       <c r="A16" s="2">
         <v>41971</v>
       </c>
@@ -4035,7 +4292,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33">
       <c r="A17" s="2">
         <v>42004</v>
       </c>
@@ -4118,7 +4375,7 @@
         <v>77.69</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33">
       <c r="A18" s="2">
         <v>42034</v>
       </c>
@@ -4201,7 +4458,7 @@
         <v>92.74</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33">
       <c r="A19" s="2">
         <v>42062</v>
       </c>
@@ -4284,7 +4541,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33">
       <c r="A20" s="2">
         <v>42094</v>
       </c>
@@ -4370,7 +4627,7 @@
         <v>109.92</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33">
       <c r="A21" s="2">
         <v>42124</v>
       </c>
@@ -4456,7 +4713,7 @@
         <v>90.18</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33">
       <c r="A22" s="2">
         <v>42153</v>
       </c>
@@ -4542,7 +4799,7 @@
         <v>98.09</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33">
       <c r="A23" s="2">
         <v>42185</v>
       </c>
@@ -4628,7 +4885,7 @@
         <v>93.82</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33">
       <c r="A24" s="2">
         <v>42216</v>
       </c>
@@ -4714,7 +4971,7 @@
         <v>91.07</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33">
       <c r="A25" s="2">
         <v>42247</v>
       </c>
@@ -4800,7 +5057,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33">
       <c r="A26" s="2">
         <v>42277</v>
       </c>
@@ -4886,7 +5143,7 @@
         <v>78.790000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33">
       <c r="A27" s="2">
         <v>42307</v>
       </c>
@@ -4975,7 +5232,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33">
       <c r="A28" s="2">
         <v>42338</v>
       </c>
@@ -5067,7 +5324,7 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33">
       <c r="A29" s="2">
         <v>42369</v>
       </c>
@@ -5159,7 +5416,7 @@
         <v>82.12</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33">
       <c r="A30" s="2">
         <v>42398</v>
       </c>
@@ -5251,7 +5508,7 @@
         <v>78.78</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33">
       <c r="A31" s="2">
         <v>42429</v>
       </c>
@@ -5343,7 +5600,7 @@
         <v>69.47</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33">
       <c r="A32" s="2">
         <v>42460</v>
       </c>
@@ -5435,7 +5692,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33">
       <c r="A33" s="2">
         <v>42489</v>
       </c>
@@ -5527,7 +5784,7 @@
         <v>71.45</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33">
       <c r="A34" s="2">
         <v>42521</v>
       </c>
@@ -5619,7 +5876,7 @@
         <v>71.319999999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33">
       <c r="A35" s="2">
         <v>42551</v>
       </c>
@@ -5711,7 +5968,7 @@
         <v>70.33</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33">
       <c r="A36" s="2">
         <v>42580</v>
       </c>
@@ -5803,7 +6060,7 @@
         <v>87.52</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33">
       <c r="A37" s="2">
         <v>42613</v>
       </c>
@@ -5895,7 +6152,7 @@
         <v>90.07</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33">
       <c r="A38" s="2">
         <v>42643</v>
       </c>
@@ -5990,7 +6247,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33">
       <c r="A39" s="2">
         <v>42674</v>
       </c>
@@ -6085,7 +6342,7 @@
         <v>117.54</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33">
       <c r="A40" s="2">
         <v>42704</v>
       </c>
@@ -6180,7 +6437,7 @@
         <v>130.37</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33">
       <c r="A41" s="2">
         <v>42734</v>
       </c>
@@ -6275,7 +6532,7 @@
         <v>146.59</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33">
       <c r="A42" s="2">
         <v>42766</v>
       </c>
@@ -6370,7 +6627,7 @@
         <v>165.32</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33">
       <c r="A43" s="2">
         <v>42794</v>
       </c>
@@ -6465,7 +6722,7 @@
         <v>195.31</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33">
       <c r="A44" s="2">
         <v>42825</v>
       </c>
@@ -6560,7 +6817,7 @@
         <v>195.01</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33">
       <c r="A45" s="2">
         <v>42853</v>
       </c>
@@ -6655,7 +6912,7 @@
         <v>202.09</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33">
       <c r="A46" s="2">
         <v>42886</v>
       </c>
@@ -6750,7 +7007,7 @@
         <v>199.77</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33">
       <c r="A47" s="2">
         <v>42916</v>
       </c>
@@ -6845,7 +7102,7 @@
         <v>171.91</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33">
       <c r="A48" s="2">
         <v>42947</v>
       </c>
@@ -6940,7 +7197,7 @@
         <v>197.19</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33">
       <c r="A49" s="2">
         <v>42978</v>
       </c>
@@ -7035,7 +7292,7 @@
         <v>199.24</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33">
       <c r="A50" s="2">
         <v>43007</v>
       </c>
@@ -7130,7 +7387,7 @@
         <v>224.01</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33">
       <c r="A51" s="2">
         <v>43039</v>
       </c>
@@ -7225,7 +7482,7 @@
         <v>277.04000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33">
       <c r="A52" s="2">
         <v>43069</v>
       </c>
@@ -7320,7 +7577,7 @@
         <v>261.14</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33">
       <c r="A53" s="2">
         <v>43098</v>
       </c>
@@ -7415,7 +7672,7 @@
         <v>249.94</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33">
       <c r="A54" s="2">
         <v>43131</v>
       </c>
@@ -7510,7 +7767,7 @@
         <v>264.08</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33">
       <c r="A55" s="2">
         <v>43159</v>
       </c>
@@ -7605,7 +7862,7 @@
         <v>258.52</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33">
       <c r="A56" s="2">
         <v>43189</v>
       </c>
@@ -7700,7 +7957,7 @@
         <v>247.51</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33">
       <c r="A57" s="2">
         <v>43220</v>
       </c>
@@ -7795,7 +8052,7 @@
         <v>249.51</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33">
       <c r="A58" s="2">
         <v>43251</v>
       </c>
@@ -7890,7 +8147,7 @@
         <v>280.33</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33">
       <c r="A59" s="2">
         <v>43280</v>
       </c>
@@ -7985,7 +8242,7 @@
         <v>263.86</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33">
       <c r="A60" s="2">
         <v>43312</v>
       </c>
@@ -8080,7 +8337,7 @@
         <v>256.83</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33">
       <c r="A61" s="2">
         <v>43343</v>
       </c>
@@ -8175,7 +8432,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33">
       <c r="A62" s="2">
         <v>43371</v>
       </c>
@@ -8270,7 +8527,7 @@
         <v>216.75</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33">
       <c r="A63" s="2">
         <v>43404</v>
       </c>
@@ -8365,7 +8622,7 @@
         <v>185.3</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33">
       <c r="A64" s="2">
         <v>43434</v>
       </c>
@@ -8460,7 +8717,7 @@
         <v>179.07</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33">
       <c r="A65" s="2">
         <v>43465</v>
       </c>
@@ -8555,7 +8812,7 @@
         <v>169.75</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33">
       <c r="A66" s="2">
         <v>43496</v>
       </c>
@@ -8650,7 +8907,7 @@
         <v>192.58</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33">
       <c r="A67" s="2">
         <v>43524</v>
       </c>
@@ -8745,7 +9002,7 @@
         <v>199.66</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33">
       <c r="A68" s="2">
         <v>43553</v>
       </c>
@@ -8840,7 +9097,7 @@
         <v>183.51</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33">
       <c r="A69" s="2">
         <v>43585</v>
       </c>
@@ -8935,7 +9192,7 @@
         <v>228.06</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33">
       <c r="A70" s="2">
         <v>43616</v>
       </c>
@@ -9030,7 +9287,7 @@
         <v>190.68</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33">
       <c r="A71" s="2">
         <v>43644</v>
       </c>
@@ -9125,7 +9382,7 @@
         <v>217.9</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33">
       <c r="A72" s="2">
         <v>43677</v>
       </c>
@@ -9220,7 +9477,7 @@
         <v>233.41</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33">
       <c r="A73" s="2">
         <v>43707</v>
       </c>
@@ -9315,7 +9572,7 @@
         <v>225.03</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33">
       <c r="A74" s="2">
         <v>43738</v>
       </c>
@@ -9416,7 +9673,7 @@
         <v>248.5</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33">
       <c r="A75" s="2">
         <v>43769</v>
       </c>
@@ -9517,7 +9774,7 @@
         <v>284.83999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33">
       <c r="A76" s="2">
         <v>43798</v>
       </c>
@@ -9618,7 +9875,7 @@
         <v>312.29000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33">
       <c r="A77" s="2">
         <v>43830</v>
       </c>
@@ -9719,7 +9976,7 @@
         <v>336.3</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33">
       <c r="A78" s="2">
         <v>43861</v>
       </c>
@@ -9820,7 +10077,7 @@
         <v>354.68</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:33">
       <c r="A79" s="2">
         <v>43889</v>
       </c>
@@ -9921,7 +10178,7 @@
         <v>342.06</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33">
       <c r="A80" s="2">
         <v>43921</v>
       </c>
@@ -10022,7 +10279,7 @@
         <v>279.63</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:33">
       <c r="A81" s="2">
         <v>43951</v>
       </c>
@@ -10123,7 +10380,7 @@
         <v>333.58</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:33">
       <c r="A82" s="2">
         <v>43980</v>
       </c>
@@ -10224,7 +10481,7 @@
         <v>310.79000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:33">
       <c r="A83" s="2">
         <v>44012</v>
       </c>
@@ -10325,7 +10582,7 @@
         <v>341.22</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:33">
       <c r="A84" s="2">
         <v>44043</v>
       </c>
@@ -10426,7 +10683,7 @@
         <v>335.44</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:33">
       <c r="A85" s="2">
         <v>44074</v>
       </c>
@@ -10527,7 +10784,7 @@
         <v>354.18</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:33">
       <c r="A86" s="2">
         <v>44104</v>
       </c>
@@ -10628,7 +10885,7 @@
         <v>370.26</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:33">
       <c r="A87" s="2">
         <v>44134</v>
       </c>
@@ -10729,7 +10986,7 @@
         <v>369.13</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:33">
       <c r="A88" s="2">
         <v>44165</v>
       </c>
@@ -10830,7 +11087,7 @@
         <v>463.07</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:33">
       <c r="A89" s="2">
         <v>44196</v>
       </c>
@@ -10931,7 +11188,7 @@
         <v>431.35</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:33">
       <c r="A90" s="2">
         <v>44225</v>
       </c>
@@ -11032,7 +11289,7 @@
         <v>469.76</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:33">
       <c r="A91" s="2">
         <v>44253</v>
       </c>
@@ -11133,7 +11390,7 @@
         <v>451.68</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:33">
       <c r="A92" s="2">
         <v>44286</v>
       </c>
@@ -11234,7 +11491,7 @@
         <v>459.59</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:33">
       <c r="A93" s="2">
         <v>44316</v>
       </c>
@@ -11335,7 +11592,7 @@
         <v>440.16</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:33">
       <c r="A94" s="2">
         <v>44347</v>
       </c>
@@ -11436,7 +11693,7 @@
         <v>433.17</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:33">
       <c r="A95" s="2">
         <v>44377</v>
       </c>
@@ -11537,7 +11794,7 @@
         <v>433.14</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:33">
       <c r="A96" s="2">
         <v>44407</v>
       </c>
@@ -11638,7 +11895,7 @@
         <v>488.62</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:33">
       <c r="A97" s="2">
         <v>44439</v>
       </c>
@@ -11739,7 +11996,7 @@
         <v>533.27</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:33">
       <c r="A98" s="2">
         <v>44469</v>
       </c>
@@ -11840,7 +12097,7 @@
         <v>535.09</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:33">
       <c r="A99" s="2">
         <v>44498</v>
       </c>
@@ -11941,7 +12198,7 @@
         <v>579.42999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:33">
       <c r="A100" s="2">
         <v>44530</v>
       </c>
@@ -12042,7 +12299,7 @@
         <v>610.67999999999995</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:33">
       <c r="A101" s="2">
         <v>44561</v>
       </c>
@@ -12143,7 +12400,7 @@
         <v>620.69000000000005</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:33">
       <c r="A102" s="2">
         <v>44592</v>
       </c>
@@ -12244,7 +12501,7 @@
         <v>585.09</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:33">
       <c r="A103" s="2">
         <v>44620</v>
       </c>
@@ -12345,7 +12602,7 @@
         <v>538.41999999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:33">
       <c r="A104" s="2">
         <v>44651</v>
       </c>
@@ -12446,7 +12703,7 @@
         <v>562.49</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:33">
       <c r="A105" s="2">
         <v>44680</v>
       </c>
@@ -12547,7 +12804,7 @@
         <v>507.96</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:33">
       <c r="A106" s="2">
         <v>44712</v>
       </c>
@@ -12648,7 +12905,7 @@
         <v>528.05999999999995</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:33">
       <c r="A107" s="2">
         <v>44742</v>
       </c>
@@ -12749,7 +13006,7 @@
         <v>426.46</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:33">
       <c r="A108" s="2">
         <v>44771</v>
       </c>
@@ -12850,7 +13107,7 @@
         <v>525.30999999999995</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:33">
       <c r="A109" s="2">
         <v>44804</v>
       </c>
@@ -12951,7 +13208,7 @@
         <v>494.8</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:33">
       <c r="A110" s="2">
         <v>44834</v>
       </c>
@@ -13052,7 +13309,7 @@
         <v>459.33</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:33">
       <c r="A111" s="2">
         <v>44865</v>
       </c>
@@ -13153,7 +13410,7 @@
         <v>450.07</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:33">
       <c r="A112" s="2">
         <v>44895</v>
       </c>
@@ -13254,7 +13511,7 @@
         <v>513.38</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:33">
       <c r="A113" s="2">
         <v>44925</v>
       </c>
@@ -13355,7 +13612,7 @@
         <v>470.71</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:33">
       <c r="A114" s="2">
         <v>44957</v>
       </c>
@@ -13456,7 +13713,7 @@
         <v>614.83000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:33">
       <c r="A115" s="2">
         <v>44985</v>
       </c>
@@ -13557,7 +13814,7 @@
         <v>647.48</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:33">
       <c r="A116" s="2">
         <v>45016</v>
       </c>
@@ -13658,7 +13915,7 @@
         <v>698.85</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:33">
       <c r="A117" s="2">
         <v>45044</v>
       </c>
@@ -13759,7 +14016,7 @@
         <v>550.44000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:33">
       <c r="A118" s="2">
         <v>45077</v>
       </c>
@@ -13860,7 +14117,7 @@
         <v>579.21</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:33">
       <c r="A119" s="2">
         <v>45107</v>
       </c>
@@ -13961,7 +14218,7 @@
         <v>651.15</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:33">
       <c r="A120" s="2">
         <v>45138</v>
       </c>
@@ -14062,7 +14319,7 @@
         <v>695.17</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:33">
       <c r="A121" s="2">
         <v>45169</v>
       </c>
@@ -14163,7 +14420,7 @@
         <v>624.05999999999995</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:33">
       <c r="A122" s="2">
         <v>45198</v>
       </c>
@@ -14281,15 +14538,15 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
-        <f>_xll.DSGRID("F:CAP,M:TIE1,S:LOGN,W:EKBF,SGE,F:SOP,H:ASML,H:BESI,N:NOD,F:DSY,H:ASIN,D:SAPX,CCC,I:STM,D:AIXAX,F:ALTE,F:SOI,D:NEMX,D:IFXX,D:BC8X,I:REY,S:TEMN,W:LAGR,S:AMS,E:AMS,W:FORT","RI","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</f>
-        <v>Name</v>
+    <row r="1" spans="1:91">
+      <c r="A1" t="e">
+        <f ca="1">_xll.DSGRID("F:CAP,M:TIE1,S:LOGN,W:EKBF,SGE,F:SOP,H:ASML,H:BESI,N:NOD,F:DSY,H:ASIN,D:SAPX,CCC,I:STM,D:AIXAX,F:ALTE,F:SOI,D:NEMX,D:IFXX,D:BC8X,I:REY,S:TEMN,W:LAGR,S:AMS,E:AMS,W:FORT","RI","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</f>
+        <v>#NAME?</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -14434,7 +14691,7 @@
       <c r="CL1" s="1"/>
       <c r="CM1" s="1"/>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:91">
       <c r="A2" s="2">
         <v>41547</v>
       </c>
@@ -14517,7 +14774,7 @@
         <v>367.22</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:91">
       <c r="A3" s="2">
         <v>41578</v>
       </c>
@@ -14600,7 +14857,7 @@
         <v>365.29</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:91">
       <c r="A4" s="2">
         <v>41607</v>
       </c>
@@ -14683,7 +14940,7 @@
         <v>355.68</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:91">
       <c r="A5" s="2">
         <v>41639</v>
       </c>
@@ -14766,7 +15023,7 @@
         <v>332.61</v>
       </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:91">
       <c r="A6" s="2">
         <v>41670</v>
       </c>
@@ -14849,7 +15106,7 @@
         <v>344.14</v>
       </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:91">
       <c r="A7" s="2">
         <v>41698</v>
       </c>
@@ -14932,7 +15189,7 @@
         <v>376.83</v>
       </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:91">
       <c r="A8" s="2">
         <v>41729</v>
       </c>
@@ -15015,7 +15272,7 @@
         <v>397.33</v>
       </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:91">
       <c r="A9" s="2">
         <v>41759</v>
       </c>
@@ -15098,7 +15355,7 @@
         <v>444.53</v>
       </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:91">
       <c r="A10" s="2">
         <v>41789</v>
       </c>
@@ -15181,7 +15438,7 @@
         <v>535.01</v>
       </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:91">
       <c r="A11" s="2">
         <v>41820</v>
       </c>
@@ -15264,7 +15521,7 @@
         <v>550.75</v>
       </c>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:91">
       <c r="A12" s="2">
         <v>41851</v>
       </c>
@@ -15347,7 +15604,7 @@
         <v>535.01</v>
       </c>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:91">
       <c r="A13" s="2">
         <v>41880</v>
       </c>
@@ -15430,7 +15687,7 @@
         <v>483.87</v>
       </c>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:91">
       <c r="A14" s="2">
         <v>41912</v>
       </c>
@@ -15513,7 +15770,7 @@
         <v>503.54</v>
       </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:91">
       <c r="A15" s="2">
         <v>41943</v>
       </c>
@@ -15596,7 +15853,7 @@
         <v>452.4</v>
       </c>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:91">
       <c r="A16" s="2">
         <v>41971</v>
       </c>
@@ -15679,7 +15936,7 @@
         <v>432.73</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27">
       <c r="A17" s="2">
         <v>42004</v>
       </c>
@@ -15762,7 +16019,7 @@
         <v>432.73</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27">
       <c r="A18" s="2">
         <v>42034</v>
       </c>
@@ -15845,7 +16102,7 @@
         <v>432.73</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27">
       <c r="A19" s="2">
         <v>42062</v>
       </c>
@@ -15928,7 +16185,7 @@
         <v>432.73</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27">
       <c r="A20" s="2">
         <v>42094</v>
       </c>
@@ -16011,7 +16268,7 @@
         <v>475.18</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27">
       <c r="A21" s="2">
         <v>42124</v>
       </c>
@@ -16094,7 +16351,7 @@
         <v>434.91</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27">
       <c r="A22" s="2">
         <v>42153</v>
       </c>
@@ -16177,7 +16434,7 @@
         <v>479.2</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27">
       <c r="A23" s="2">
         <v>42185</v>
       </c>
@@ -16260,7 +16517,7 @@
         <v>467.12</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27">
       <c r="A24" s="2">
         <v>42216</v>
       </c>
@@ -16343,7 +16600,7 @@
         <v>475.18</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27">
       <c r="A25" s="2">
         <v>42247</v>
       </c>
@@ -16426,7 +16683,7 @@
         <v>483.23</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27">
       <c r="A26" s="2">
         <v>42277</v>
       </c>
@@ -16509,7 +16766,7 @@
         <v>483.23</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27">
       <c r="A27" s="2">
         <v>42307</v>
       </c>
@@ -16592,7 +16849,7 @@
         <v>591.96</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27">
       <c r="A28" s="2">
         <v>42338</v>
       </c>
@@ -16675,7 +16932,7 @@
         <v>684.58</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27">
       <c r="A29" s="2">
         <v>42369</v>
       </c>
@@ -16758,7 +17015,7 @@
         <v>672.49</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27">
       <c r="A30" s="2">
         <v>42398</v>
       </c>
@@ -16841,7 +17098,7 @@
         <v>684.58</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27">
       <c r="A31" s="2">
         <v>42429</v>
       </c>
@@ -16924,7 +17181,7 @@
         <v>648.33000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27">
       <c r="A32" s="2">
         <v>42460</v>
       </c>
@@ -17007,7 +17264,7 @@
         <v>942.3</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27">
       <c r="A33" s="2">
         <v>42489</v>
       </c>
@@ -17090,7 +17347,7 @@
         <v>926.19</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27">
       <c r="A34" s="2">
         <v>42521</v>
       </c>
@@ -17173,7 +17430,7 @@
         <v>926.19</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27">
       <c r="A35" s="2">
         <v>42551</v>
       </c>
@@ -17256,7 +17513,7 @@
         <v>651.04</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27">
       <c r="A36" s="2">
         <v>42580</v>
       </c>
@@ -17339,7 +17596,7 @@
         <v>756.84</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27">
       <c r="A37" s="2">
         <v>42613</v>
       </c>
@@ -17422,7 +17679,7 @@
         <v>948.08</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27">
       <c r="A38" s="2">
         <v>42643</v>
       </c>
@@ -17505,7 +17762,7 @@
         <v>976.57</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27">
       <c r="A39" s="2">
         <v>42674</v>
       </c>
@@ -17588,7 +17845,7 @@
         <v>1155.5999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27">
       <c r="A40" s="2">
         <v>42704</v>
       </c>
@@ -17671,7 +17928,7 @@
         <v>1273.5999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27">
       <c r="A41" s="2">
         <v>42734</v>
       </c>
@@ -17754,7 +18011,7 @@
         <v>1216.6400000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27">
       <c r="A42" s="2">
         <v>42766</v>
       </c>
@@ -17837,7 +18094,7 @@
         <v>1354.99</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27">
       <c r="A43" s="2">
         <v>42794</v>
       </c>
@@ -17920,7 +18177,7 @@
         <v>1375.33</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27">
       <c r="A44" s="2">
         <v>42825</v>
       </c>
@@ -18003,7 +18260,7 @@
         <v>1326.55</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27">
       <c r="A45" s="2">
         <v>42853</v>
       </c>
@@ -18086,7 +18343,7 @@
         <v>1416.63</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27">
       <c r="A46" s="2">
         <v>42886</v>
       </c>
@@ -18169,7 +18426,7 @@
         <v>1453.48</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27">
       <c r="A47" s="2">
         <v>42916</v>
       </c>
@@ -18252,7 +18509,7 @@
         <v>1371.59</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27">
       <c r="A48" s="2">
         <v>42947</v>
       </c>
@@ -18335,7 +18592,7 @@
         <v>1424.82</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27">
       <c r="A49" s="2">
         <v>42978</v>
       </c>
@@ -18418,7 +18675,7 @@
         <v>1453.48</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27">
       <c r="A50" s="2">
         <v>43007</v>
       </c>
@@ -18501,7 +18758,7 @@
         <v>1621.34</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27">
       <c r="A51" s="2">
         <v>43039</v>
       </c>
@@ -18584,7 +18841,7 @@
         <v>1801.49</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27">
       <c r="A52" s="2">
         <v>43069</v>
       </c>
@@ -18667,7 +18924,7 @@
         <v>1916.13</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27">
       <c r="A53" s="2">
         <v>43098</v>
       </c>
@@ -18750,7 +19007,7 @@
         <v>1764.64</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27">
       <c r="A54" s="2">
         <v>43131</v>
       </c>
@@ -18833,7 +19090,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27">
       <c r="A55" s="2">
         <v>43159</v>
       </c>
@@ -18916,7 +19173,7 @@
         <v>1979.59</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27">
       <c r="A56" s="2">
         <v>43189</v>
       </c>
@@ -18999,7 +19256,7 @@
         <v>2041.36</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27">
       <c r="A57" s="2">
         <v>43220</v>
       </c>
@@ -19082,7 +19339,7 @@
         <v>2650.48</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27">
       <c r="A58" s="2">
         <v>43251</v>
       </c>
@@ -19165,7 +19422,7 @@
         <v>2703.98</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27">
       <c r="A59" s="2">
         <v>43280</v>
       </c>
@@ -19248,7 +19505,7 @@
         <v>2736.9</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27">
       <c r="A60" s="2">
         <v>43312</v>
       </c>
@@ -19331,7 +19588,7 @@
         <v>2880.95</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27">
       <c r="A61" s="2">
         <v>43343</v>
       </c>
@@ -19414,7 +19671,7 @@
         <v>3321.33</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27">
       <c r="A62" s="2">
         <v>43371</v>
       </c>
@@ -19497,7 +19754,7 @@
         <v>3210.2</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27">
       <c r="A63" s="2">
         <v>43404</v>
       </c>
@@ -19580,7 +19837,7 @@
         <v>3201.97</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27">
       <c r="A64" s="2">
         <v>43434</v>
       </c>
@@ -19663,7 +19920,7 @@
         <v>3292.52</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27">
       <c r="A65" s="2">
         <v>43465</v>
       </c>
@@ -19746,7 +20003,7 @@
         <v>2749.25</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27">
       <c r="A66" s="2">
         <v>43496</v>
       </c>
@@ -19829,7 +20086,7 @@
         <v>3053.81</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27">
       <c r="A67" s="2">
         <v>43524</v>
       </c>
@@ -19912,7 +20169,7 @@
         <v>3650.58</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27">
       <c r="A68" s="2">
         <v>43553</v>
       </c>
@@ -19995,7 +20252,7 @@
         <v>3882.96</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27">
       <c r="A69" s="2">
         <v>43585</v>
       </c>
@@ -20078,7 +20335,7 @@
         <v>4692.6000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27">
       <c r="A70" s="2">
         <v>43616</v>
       </c>
@@ -20161,7 +20418,7 @@
         <v>5113.9399999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27">
       <c r="A71" s="2">
         <v>43644</v>
       </c>
@@ -20244,7 +20501,7 @@
         <v>5791.39</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27">
       <c r="A72" s="2">
         <v>43677</v>
       </c>
@@ -20327,7 +20584,7 @@
         <v>5824.44</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27">
       <c r="A73" s="2">
         <v>43707</v>
       </c>
@@ -20410,7 +20667,7 @@
         <v>6320.14</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27">
       <c r="A74" s="2">
         <v>43738</v>
       </c>
@@ -20493,7 +20750,7 @@
         <v>6824.09</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27">
       <c r="A75" s="2">
         <v>43769</v>
       </c>
@@ -20576,7 +20833,7 @@
         <v>7146.3</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27">
       <c r="A76" s="2">
         <v>43798</v>
       </c>
@@ -20659,7 +20916,7 @@
         <v>6989.32</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27">
       <c r="A77" s="2">
         <v>43830</v>
       </c>
@@ -20742,7 +20999,7 @@
         <v>6939.76</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27">
       <c r="A78" s="2">
         <v>43861</v>
       </c>
@@ -20825,7 +21082,7 @@
         <v>6981.06</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27">
       <c r="A79" s="2">
         <v>43889</v>
       </c>
@@ -20908,7 +21165,7 @@
         <v>7724.61</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27">
       <c r="A80" s="2">
         <v>43921</v>
       </c>
@@ -20991,7 +21248,7 @@
         <v>6796.38</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27">
       <c r="A81" s="2">
         <v>43951</v>
       </c>
@@ -21074,7 +21331,7 @@
         <v>9282.86</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27">
       <c r="A82" s="2">
         <v>43980</v>
       </c>
@@ -21157,7 +21414,7 @@
         <v>10774.75</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27">
       <c r="A83" s="2">
         <v>44012</v>
       </c>
@@ -21240,7 +21497,7 @@
         <v>10567.54</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27">
       <c r="A84" s="2">
         <v>44043</v>
       </c>
@@ -21323,7 +21580,7 @@
         <v>10712.58</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27">
       <c r="A85" s="2">
         <v>44074</v>
       </c>
@@ -21406,7 +21663,7 @@
         <v>12473.84</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27">
       <c r="A86" s="2">
         <v>44104</v>
       </c>
@@ -21489,7 +21746,7 @@
         <v>11189.16</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27">
       <c r="A87" s="2">
         <v>44134</v>
       </c>
@@ -21572,7 +21829,7 @@
         <v>11520.69</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27">
       <c r="A88" s="2">
         <v>44165</v>
       </c>
@@ -21655,7 +21912,7 @@
         <v>15312.57</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27">
       <c r="A89" s="2">
         <v>44196</v>
       </c>
@@ -21738,7 +21995,7 @@
         <v>19166.62</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27">
       <c r="A90" s="2">
         <v>44225</v>
       </c>
@@ -21821,7 +22078,7 @@
         <v>16990.95</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27">
       <c r="A91" s="2">
         <v>44253</v>
       </c>
@@ -21904,7 +22161,7 @@
         <v>19601.75</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27">
       <c r="A92" s="2">
         <v>44286</v>
       </c>
@@ -21987,7 +22244,7 @@
         <v>16150.53</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27">
       <c r="A93" s="2">
         <v>44316</v>
       </c>
@@ -22070,7 +22327,7 @@
         <v>18018.84</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27">
       <c r="A94" s="2">
         <v>44347</v>
       </c>
@@ -22153,7 +22410,7 @@
         <v>17371.16</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27">
       <c r="A95" s="2">
         <v>44377</v>
       </c>
@@ -22236,7 +22493,7 @@
         <v>17470.810000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27">
       <c r="A96" s="2">
         <v>44407</v>
       </c>
@@ -22319,7 +22576,7 @@
         <v>19173.05</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27">
       <c r="A97" s="2">
         <v>44439</v>
       </c>
@@ -22402,7 +22659,7 @@
         <v>20592.96</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27">
       <c r="A98" s="2">
         <v>44469</v>
       </c>
@@ -22485,7 +22742,7 @@
         <v>22004.58</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27">
       <c r="A99" s="2">
         <v>44498</v>
       </c>
@@ -22568,7 +22825,7 @@
         <v>25242.99</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27">
       <c r="A100" s="2">
         <v>44530</v>
       </c>
@@ -22651,7 +22908,7 @@
         <v>22834.94</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27">
       <c r="A101" s="2">
         <v>44561</v>
       </c>
@@ -22734,7 +22991,7 @@
         <v>24288.07</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27">
       <c r="A102" s="2">
         <v>44592</v>
       </c>
@@ -22817,7 +23074,7 @@
         <v>19513.5</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27">
       <c r="A103" s="2">
         <v>44620</v>
       </c>
@@ -22900,7 +23157,7 @@
         <v>15776.87</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27">
       <c r="A104" s="2">
         <v>44651</v>
       </c>
@@ -22983,7 +23240,7 @@
         <v>21601.85</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27">
       <c r="A105" s="2">
         <v>44680</v>
       </c>
@@ -23066,7 +23323,7 @@
         <v>22142.42</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27">
       <c r="A106" s="2">
         <v>44712</v>
       </c>
@@ -23149,7 +23406,7 @@
         <v>23926.29</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27">
       <c r="A107" s="2">
         <v>44742</v>
       </c>
@@ -23232,7 +23489,7 @@
         <v>19543.54</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27">
       <c r="A108" s="2">
         <v>44771</v>
       </c>
@@ -23315,7 +23572,7 @@
         <v>23897.18</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27">
       <c r="A109" s="2">
         <v>44804</v>
       </c>
@@ -23398,7 +23655,7 @@
         <v>19757.689999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27">
       <c r="A110" s="2">
         <v>44834</v>
       </c>
@@ -23481,7 +23738,7 @@
         <v>18002.93</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27">
       <c r="A111" s="2">
         <v>44865</v>
       </c>
@@ -23564,7 +23821,7 @@
         <v>19545.63</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27">
       <c r="A112" s="2">
         <v>44895</v>
       </c>
@@ -23647,7 +23904,7 @@
         <v>19377.22</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27">
       <c r="A113" s="2">
         <v>44925</v>
       </c>
@@ -23730,7 +23987,7 @@
         <v>19664.13</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27">
       <c r="A114" s="2">
         <v>44957</v>
       </c>
@@ -23813,7 +24070,7 @@
         <v>21872.14</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27">
       <c r="A115" s="2">
         <v>44985</v>
       </c>
@@ -23896,7 +24153,7 @@
         <v>25905.59</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27">
       <c r="A116" s="2">
         <v>45016</v>
       </c>
@@ -23979,7 +24236,7 @@
         <v>29539.86</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27">
       <c r="A117" s="2">
         <v>45044</v>
       </c>
@@ -24062,7 +24319,7 @@
         <v>29373.25</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27">
       <c r="A118" s="2">
         <v>45077</v>
       </c>
@@ -24145,7 +24402,7 @@
         <v>29131.67</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27">
       <c r="A119" s="2">
         <v>45107</v>
       </c>
@@ -24228,7 +24485,7 @@
         <v>26524.23</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27">
       <c r="A120" s="2">
         <v>45138</v>
       </c>
@@ -24311,7 +24568,7 @@
         <v>26924.09</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27">
       <c r="A121" s="2">
         <v>45169</v>
       </c>
@@ -24394,7 +24651,7 @@
         <v>23708.53</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27">
       <c r="A122" s="2">
         <v>45198</v>
       </c>
@@ -24490,25 +24747,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55AF48A-25A2-4815-B28C-927011504988}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
-        <f>_xll.DSGRID("TRBD3MT"," ","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</f>
-        <v>Name</v>
+    <row r="1" spans="1:4">
+      <c r="A1" t="e">
+        <f ca="1">_xll.DSGRID("TRBD3MT"," ","2013-09-30","2023-09-30","M","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=true;AutoRefresh=false")</f>
+        <v>#NAME?</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>41547</v>
       </c>
@@ -24516,7 +24773,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>41578</v>
       </c>
@@ -24524,7 +24781,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>41607</v>
       </c>
@@ -24532,7 +24789,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>41639</v>
       </c>
@@ -24540,7 +24797,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>41670</v>
       </c>
@@ -24548,7 +24805,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>41698</v>
       </c>
@@ -24556,7 +24813,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>41729</v>
       </c>
@@ -24564,7 +24821,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>41759</v>
       </c>
@@ -24573,7 +24830,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>41789</v>
       </c>
@@ -24581,7 +24838,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>41820</v>
       </c>
@@ -24589,7 +24846,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>41851</v>
       </c>
@@ -24597,7 +24854,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>41880</v>
       </c>
@@ -24605,7 +24862,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>41912</v>
       </c>
@@ -24613,7 +24870,7 @@
         <v>-7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>41943</v>
       </c>
@@ -24621,7 +24878,7 @@
         <v>-0.13200000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>41971</v>
       </c>
@@ -24629,7 +24886,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42004</v>
       </c>
@@ -24637,7 +24894,7 @@
         <v>-0.252</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42034</v>
       </c>
@@ -24645,7 +24902,7 @@
         <v>-0.17199999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42062</v>
       </c>
@@ -24653,7 +24910,7 @@
         <v>-0.21299999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42094</v>
       </c>
@@ -24661,7 +24918,7 @@
         <v>-0.24299999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42124</v>
       </c>
@@ -24669,7 +24926,7 @@
         <v>-0.372</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42153</v>
       </c>
@@ -24677,7 +24934,7 @@
         <v>-0.27200000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42185</v>
       </c>
@@ -24685,7 +24942,7 @@
         <v>-0.27500000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42216</v>
       </c>
@@ -24693,7 +24950,7 @@
         <v>-0.28199999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42247</v>
       </c>
@@ -24701,7 +24958,7 @@
         <v>-0.29299999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42277</v>
       </c>
@@ -24709,7 +24966,7 @@
         <v>-0.31900000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42307</v>
       </c>
@@ -24717,7 +24974,7 @@
         <v>-0.375</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42338</v>
       </c>
@@ -24725,7 +24982,7 @@
         <v>-0.39100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42369</v>
       </c>
@@ -24733,7 +24990,7 @@
         <v>-0.60399999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42398</v>
       </c>
@@ -24741,7 +24998,7 @@
         <v>-0.39500000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42429</v>
       </c>
@@ -24749,7 +25006,7 @@
         <v>-0.54700000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42460</v>
       </c>
@@ -24757,7 +25014,7 @@
         <v>-0.55900000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42489</v>
       </c>
@@ -24765,7 +25022,7 @@
         <v>-0.55900000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42521</v>
       </c>
@@ -24773,7 +25030,7 @@
         <v>-0.55000000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42551</v>
       </c>
@@ -24781,7 +25038,7 @@
         <v>-0.64900000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42580</v>
       </c>
@@ -24789,7 +25046,7 @@
         <v>-0.73699999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42613</v>
       </c>
@@ -24797,7 +25054,7 @@
         <v>-0.80900000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42643</v>
       </c>
@@ -24805,7 +25062,7 @@
         <v>-0.78500000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42674</v>
       </c>
@@ -24813,7 +25070,7 @@
         <v>-0.749</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42704</v>
       </c>
@@ -24821,7 +25078,7 @@
         <v>-0.77400000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42734</v>
       </c>
@@ -24829,7 +25086,7 @@
         <v>-0.93</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42766</v>
       </c>
@@ -24837,7 +25094,7 @@
         <v>-0.81599999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42794</v>
       </c>
@@ -24845,7 +25102,7 @@
         <v>-0.89600000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42825</v>
       </c>
@@ -24853,7 +25110,7 @@
         <v>-0.88400000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42853</v>
       </c>
@@ -24861,7 +25118,7 @@
         <v>-0.89700000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42886</v>
       </c>
@@ -24869,7 +25126,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42916</v>
       </c>
@@ -24877,7 +25134,7 @@
         <v>-0.747</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42947</v>
       </c>
@@ -24885,7 +25142,7 @@
         <v>-0.73699999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42978</v>
       </c>
@@ -24893,7 +25150,7 @@
         <v>-0.72599999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43007</v>
       </c>
@@ -24901,7 +25158,7 @@
         <v>-0.73</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43039</v>
       </c>
@@ -24909,7 +25166,7 @@
         <v>-0.83399999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43069</v>
       </c>
@@ -24917,7 +25174,7 @@
         <v>-0.91200000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43098</v>
       </c>
@@ -24925,7 +25182,7 @@
         <v>-0.80300000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43131</v>
       </c>
@@ -24933,7 +25190,7 @@
         <v>-0.68300000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43159</v>
       </c>
@@ -24941,7 +25198,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43189</v>
       </c>
@@ -24949,7 +25206,7 @@
         <v>-0.78200000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43220</v>
       </c>
@@ -24957,7 +25214,7 @@
         <v>-0.68100000000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43251</v>
       </c>
@@ -24965,7 +25222,7 @@
         <v>-0.64400000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43280</v>
       </c>
@@ -24973,7 +25230,7 @@
         <v>-0.58899999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43312</v>
       </c>
@@ -24981,7 +25238,7 @@
         <v>-0.58899999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43343</v>
       </c>
@@ -24989,7 +25246,7 @@
         <v>-0.58199999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43371</v>
       </c>
@@ -24997,7 +25254,7 @@
         <v>-0.57399999999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43404</v>
       </c>
@@ -25005,7 +25262,7 @@
         <v>-0.84199999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43434</v>
       </c>
@@ -25013,7 +25270,7 @@
         <v>-0.749</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43465</v>
       </c>
@@ -25021,7 +25278,7 @@
         <v>-0.84499999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43496</v>
       </c>
@@ -25029,7 +25286,7 @@
         <v>-0.54300000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43524</v>
       </c>
@@ -25037,7 +25294,7 @@
         <v>-0.53400000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43553</v>
       </c>
@@ -25045,7 +25302,7 @@
         <v>-0.54300000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43585</v>
       </c>
@@ -25053,7 +25310,7 @@
         <v>-0.56699999999999995</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43616</v>
       </c>
@@ -25061,7 +25318,7 @@
         <v>-0.55700000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43644</v>
       </c>
@@ -25069,7 +25326,7 @@
         <v>-0.52500000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43677</v>
       </c>
@@ -25077,7 +25334,7 @@
         <v>-0.52500000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43707</v>
       </c>
@@ -25085,7 +25342,7 @@
         <v>-0.73199999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43738</v>
       </c>
@@ -25093,7 +25350,7 @@
         <v>-0.57599999999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43769</v>
       </c>
@@ -25101,7 +25358,7 @@
         <v>-0.59099999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43798</v>
       </c>
@@ -25109,7 +25366,7 @@
         <v>-0.621</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43830</v>
       </c>
@@ -25117,7 +25374,7 @@
         <v>-0.72199999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43861</v>
       </c>
@@ -25125,7 +25382,7 @@
         <v>-0.59</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43889</v>
       </c>
@@ -25133,7 +25390,7 @@
         <v>-0.61599999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43921</v>
       </c>
@@ -25141,7 +25398,7 @@
         <v>-0.67800000000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43951</v>
       </c>
@@ -25149,7 +25406,7 @@
         <v>-0.55200000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43980</v>
       </c>
@@ -25157,7 +25414,7 @@
         <v>-0.504</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>44012</v>
       </c>
@@ -25165,7 +25422,7 @@
         <v>-0.56399999999999995</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>44043</v>
       </c>
@@ -25173,7 +25430,7 @@
         <v>-0.56799999999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44074</v>
       </c>
@@ -25181,7 +25438,7 @@
         <v>-0.56000000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>44104</v>
       </c>
@@ -25189,7 +25446,7 @@
         <v>-0.60099999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>44134</v>
       </c>
@@ -25197,7 +25454,7 @@
         <v>-0.71299999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>44165</v>
       </c>
@@ -25205,7 +25462,7 @@
         <v>-0.72499999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>44196</v>
       </c>
@@ -25213,7 +25470,7 @@
         <v>-0.72499999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>44225</v>
       </c>
@@ -25221,7 +25478,7 @@
         <v>-0.625</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>44253</v>
       </c>
@@ -25229,7 +25486,7 @@
         <v>-0.56999999999999995</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>44286</v>
       </c>
@@ -25237,7 +25494,7 @@
         <v>-0.65600000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>44316</v>
       </c>
@@ -25245,7 +25502,7 @@
         <v>-0.60099999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>44347</v>
       </c>
@@ -25253,7 +25510,7 @@
         <v>-0.64100000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>44377</v>
       </c>
@@ -25261,7 +25518,7 @@
         <v>-0.65400000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>44407</v>
       </c>
@@ -25269,7 +25526,7 @@
         <v>-0.66200000000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>44439</v>
       </c>
@@ -25277,7 +25534,7 @@
         <v>-0.66800000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>44469</v>
       </c>
@@ -25285,7 +25542,7 @@
         <v>-0.66700000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>44498</v>
       </c>
@@ -25293,7 +25550,7 @@
         <v>-0.85099999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>44530</v>
       </c>
@@ -25301,7 +25558,7 @@
         <v>-0.98299999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>44561</v>
       </c>
@@ -25309,7 +25566,7 @@
         <v>-0.75800000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>44592</v>
       </c>
@@ -25317,7 +25574,7 @@
         <v>-0.65800000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>44620</v>
       </c>
@@ -25325,7 +25582,7 @@
         <v>-0.71899999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>44651</v>
       </c>
@@ -25333,7 +25590,7 @@
         <v>-0.61699999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>44680</v>
       </c>
@@ -25341,7 +25598,7 @@
         <v>-0.66400000000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>44712</v>
       </c>
@@ -25349,7 +25606,7 @@
         <v>-0.505</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>44742</v>
       </c>
@@ -25357,7 +25614,7 @@
         <v>-0.48299999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>44771</v>
       </c>
@@ -25365,7 +25622,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>44804</v>
       </c>
@@ -25373,7 +25630,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>44834</v>
       </c>
@@ -25381,7 +25638,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>44865</v>
       </c>
@@ -25389,7 +25646,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>44895</v>
       </c>
@@ -25397,7 +25654,7 @@
         <v>1.5529999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>44925</v>
       </c>
@@ -25405,7 +25662,7 @@
         <v>1.9279999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>44957</v>
       </c>
@@ -25413,7 +25670,7 @@
         <v>2.222</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>44985</v>
       </c>
@@ -25421,7 +25678,7 @@
         <v>2.6869999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>45016</v>
       </c>
@@ -25429,7 +25686,7 @@
         <v>2.7229999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>45044</v>
       </c>
@@ -25437,7 +25694,7 @@
         <v>2.653</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>45077</v>
       </c>
@@ -25445,7 +25702,7 @@
         <v>2.9350000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>45107</v>
       </c>
@@ -25453,7 +25710,7 @@
         <v>3.367</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>45138</v>
       </c>
@@ -25461,7 +25718,7 @@
         <v>3.5449999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>45169</v>
       </c>
@@ -25469,7 +25726,7 @@
         <v>3.6520000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>45198</v>
       </c>
